--- a/Product Map/Product Map.xlsx
+++ b/Product Map/Product Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe Bomfim\Documents\UNEB\8º Semestre\Tópicos Especiais em Engenharia de Software\FeatureModel Restaurante\TEES_FeatureModelRestaurant\Product Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{266FABA3-23D8-42BD-A622-BAE6CB46C628}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F5F00F9A-D638-4DAA-8A9A-D36D36D8EC32}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{8EEA5BD7-CE3C-43C9-B812-895284E8C214}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
   <si>
     <t>Subdomínio</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Categoria</t>
   </si>
   <si>
-    <t>Mostrar Cardápio</t>
-  </si>
-  <si>
     <t>Pedido</t>
   </si>
   <si>
@@ -160,6 +157,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>Físico</t>
   </si>
 </sst>
 </file>
@@ -306,15 +309,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -391,6 +385,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -707,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82CAE47-B6DD-42A0-A8D1-E298EA86D1C1}">
-  <dimension ref="H1:L38"/>
+  <dimension ref="H1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,472 +727,479 @@
   </cols>
   <sheetData>
     <row r="1" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="H1" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="8:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>44</v>
+      <c r="J5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="H6" s="1"/>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11" t="s">
-        <v>44</v>
+      <c r="J6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="H7" s="1"/>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11" t="s">
-        <v>44</v>
+      <c r="J7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="H8" s="1"/>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>44</v>
+      <c r="J8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="H9" s="1"/>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H10" s="1"/>
+      <c r="I10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H10" s="12"/>
-      <c r="I10" s="13" t="s">
+      <c r="J10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H11" s="9"/>
+      <c r="I11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H11" s="2" t="s">
+      <c r="I12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H13" s="14"/>
+      <c r="I13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H12" s="17"/>
-      <c r="I12" s="18" t="s">
+      <c r="J13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H14" s="14"/>
+      <c r="I14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H13" s="17"/>
-      <c r="I13" s="18" t="s">
+      <c r="J14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H15" s="14"/>
+      <c r="I15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H14" s="17"/>
-      <c r="I14" s="18" t="s">
+      <c r="J15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H16" s="14"/>
+      <c r="I16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H15" s="17"/>
-      <c r="I15" s="18" t="s">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H17" s="14"/>
+      <c r="I17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H16" s="17"/>
-      <c r="I16" s="18" t="s">
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H18" s="14"/>
+      <c r="I18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H17" s="17"/>
-      <c r="I17" s="18" t="s">
+      <c r="J18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H19" s="17"/>
+      <c r="I19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-    </row>
-    <row r="18" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H18" s="20"/>
-      <c r="I18" s="21" t="s">
+      <c r="J19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H19" s="23" t="s">
+      <c r="I20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="J20" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H21" s="23"/>
+      <c r="I21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H20" s="26"/>
-      <c r="I20" s="27" t="s">
+      <c r="J21" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H22" s="23"/>
+      <c r="I22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H21" s="26"/>
-      <c r="I21" s="27" t="s">
+      <c r="J22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H23" s="23"/>
+      <c r="I23" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H22" s="26"/>
-      <c r="I22" s="27" t="s">
+      <c r="J23" s="25"/>
+      <c r="K23" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H24" s="23"/>
+      <c r="I24" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H23" s="26"/>
-      <c r="I23" s="27" t="s">
+      <c r="J24" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H25" s="23"/>
+      <c r="I25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-    </row>
-    <row r="24" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H24" s="26"/>
-      <c r="I24" s="27" t="s">
+      <c r="J25" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H26" s="23"/>
+      <c r="I26" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-    </row>
-    <row r="25" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H25" s="26"/>
-      <c r="I25" s="27" t="s">
+      <c r="J26" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H27" s="23"/>
+      <c r="I27" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="26"/>
-      <c r="I26" s="27" t="s">
+      <c r="J27" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H28" s="23"/>
+      <c r="I28" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+    </row>
+    <row r="29" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H29" s="26"/>
+      <c r="I29" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-    </row>
-    <row r="27" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="26"/>
-      <c r="I27" s="27" t="s">
+      <c r="J29" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H30" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-    </row>
-    <row r="28" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H28" s="29"/>
-      <c r="I28" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H29" s="32" t="s">
+      <c r="I30" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="J30" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H31" s="32"/>
+      <c r="I31" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H30" s="35"/>
-      <c r="I30" s="36" t="s">
+      <c r="J31" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H32" s="32"/>
+      <c r="I32" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H31" s="35"/>
-      <c r="I31" s="36" t="s">
+      <c r="J32" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H33" s="32"/>
+      <c r="I33" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H32" s="35"/>
-      <c r="I32" s="36" t="s">
+      <c r="J33" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+    </row>
+    <row r="34" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H34" s="32"/>
+      <c r="I34" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J32" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-    </row>
-    <row r="33" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H33" s="35"/>
-      <c r="I33" s="36" t="s">
+      <c r="J34" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+    </row>
+    <row r="35" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H35" s="32"/>
+      <c r="I35" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-    </row>
-    <row r="34" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H34" s="35"/>
-      <c r="I34" s="36" t="s">
+      <c r="J35" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+    </row>
+    <row r="36" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H36" s="32"/>
+      <c r="I36" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-    </row>
-    <row r="35" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H35" s="35"/>
-      <c r="I35" s="36" t="s">
+      <c r="J36" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+    </row>
+    <row r="37" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H37" s="33"/>
+      <c r="I37" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="J35" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H36" s="36"/>
-      <c r="I36" s="36" t="s">
+      <c r="J37" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+    </row>
+    <row r="38" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H38" s="33"/>
+      <c r="I38" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="J36" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-    </row>
-    <row r="37" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
+      <c r="J38" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+    </row>
+    <row r="39" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="H39" s="35"/>
+      <c r="I39" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="J37" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-    </row>
-    <row r="38" spans="8:12" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="H38" s="38"/>
-      <c r="I38" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
+      <c r="J39" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
